--- a/mbs-perturbation/chain/elm/nearmiss/chain_elm_lin_nearmiss_results.xlsx
+++ b/mbs-perturbation/chain/elm/nearmiss/chain_elm_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9206349206349207</v>
+        <v>0.9200603318250377</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8936651583710407</v>
       </c>
     </row>
     <row r="4">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.8108974358974359</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.9211915535444948</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.8589743589743589</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6825396825396826</v>
+        <v>0.9068627450980391</v>
       </c>
     </row>
   </sheetData>
